--- a/emlabpy/test_npv.xlsx
+++ b/emlabpy/test_npv.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\emlabpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B88A6E-2C3F-4BC6-87A3-D2AB163EE5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AADC97-2CB7-4532-8221-22CE52A41449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2DEE18F0-ABF9-4F99-8667-5A8B8B4F2408}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2DEE18F0-ABF9-4F99-8667-5A8B8B4F2408}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="solar" sheetId="1" r:id="rId1"/>
+    <sheet name="ccgt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>technology</t>
   </si>
@@ -86,14 +87,18 @@
   </si>
   <si>
     <t>NPV python</t>
+  </si>
+  <si>
+    <t>yearluDownPaymentInstallment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0.0;[Red]&quot;€&quot;\ \-#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -130,13 +135,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC5767E-B639-4E4C-BDD5-035C5FA94434}">
   <dimension ref="A1:AR19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="V19" sqref="A2:V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -659,7 +665,7 @@
         <v>819366.88</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:AO15" si="0">C15</f>
+        <f t="shared" ref="D15:U15" si="0">C15</f>
         <v>819366.88</v>
       </c>
       <c r="E15">
@@ -757,4 +763,315 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BA6C2D-37DB-42C8-A821-1F3771468E39}">
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="28.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f>((1-B4)*B2)+(B4*B1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <f>(1-B4)*B2</f>
+        <v>3.0000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="C4">
+        <f>(B4*B1)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>12664435.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>830000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f>B8*(1-B4)/B10</f>
+        <v>12450.000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <f>B5-B11-B6</f>
+        <v>12624185.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <f>-B8*B4/B7</f>
+        <v>-290500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>13</v>
+      </c>
+      <c r="P14">
+        <v>14</v>
+      </c>
+      <c r="Q14">
+        <v>15</v>
+      </c>
+      <c r="R14">
+        <v>16</v>
+      </c>
+      <c r="S14">
+        <v>17</v>
+      </c>
+      <c r="T14">
+        <v>18</v>
+      </c>
+      <c r="U14">
+        <v>19</v>
+      </c>
+      <c r="V14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <f>B13</f>
+        <v>-290500</v>
+      </c>
+      <c r="B15">
+        <f>B13</f>
+        <v>-290500</v>
+      </c>
+      <c r="C15">
+        <f>B12</f>
+        <v>12624185.23</v>
+      </c>
+      <c r="D15">
+        <f>C15</f>
+        <v>12624185.23</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:V15" si="0">D15</f>
+        <v>12624185.23</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>12624185.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4">
+        <f>NPV(B3,A15:V15)</f>
+        <v>88319632.533586636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>97151595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="3">
+        <f>B17-B18</f>
+        <v>-8831962.4664133638</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/emlabpy/test_npv.xlsx
+++ b/emlabpy/test_npv.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\emlabpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AADC97-2CB7-4532-8221-22CE52A41449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F79F257-D77A-4184-AA51-499A0D2136C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2DEE18F0-ABF9-4F99-8667-5A8B8B4F2408}"/>
   </bookViews>
   <sheets>
-    <sheet name="solar" sheetId="1" r:id="rId1"/>
-    <sheet name="ccgt" sheetId="2" r:id="rId2"/>
+    <sheet name="solar 150MW" sheetId="3" r:id="rId1"/>
+    <sheet name="annuity" sheetId="4" r:id="rId2"/>
+    <sheet name="solar" sheetId="1" r:id="rId3"/>
+    <sheet name="ccgt" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
   <si>
     <t>technology</t>
   </si>
@@ -90,17 +92,33 @@
   </si>
   <si>
     <t>yearluDownPaymentInstallment</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Annuity excel</t>
+  </si>
+  <si>
+    <t>present value</t>
+  </si>
+  <si>
+    <t>future value</t>
+  </si>
+  <si>
+    <t>Annuity python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;€&quot;\ #,##0;[Red]&quot;€&quot;\ \-#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;€&quot;\ #,##0.0;[Red]&quot;€&quot;\ \-#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.0;[Red]&quot;€&quot;\ \-#,##0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +129,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6897BB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC7832"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -135,14 +165,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,6 +195,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>136095</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDAD7327-E09F-CBD4-7910-D154586E630D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6356350" y="3860800"/>
+          <a:ext cx="3438095" cy="647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>364569</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>82467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31E73F6-34BE-8A06-78E3-ECAFB6A14E5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="3835400"/>
+          <a:ext cx="4447619" cy="666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,11 +586,655 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DF4A6A-443B-4C7B-84B0-6530AFDAC39A}">
+  <dimension ref="A1:AR19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" customWidth="1"/>
+    <col min="4" max="41" width="6.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>((1-B5)*B3)+(B5*B2)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <f>832316.88*150</f>
+        <v>124847532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>C7*150</f>
+        <v>1087500</v>
+      </c>
+      <c r="C7">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>C9*150</f>
+        <v>57000000</v>
+      </c>
+      <c r="C9">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <f>B9*(B5)/B11</f>
+        <v>1995000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <f>B6-B12-B7</f>
+        <v>121765032</v>
+      </c>
+      <c r="AR13" s="1"/>
+    </row>
+    <row r="14" spans="1:44">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>17</v>
+      </c>
+      <c r="S14">
+        <v>18</v>
+      </c>
+      <c r="T14">
+        <v>19</v>
+      </c>
+      <c r="U14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44">
+      <c r="A15">
+        <f>-(1-B5)*B9</f>
+        <v>-17100000.000000004</v>
+      </c>
+      <c r="B15">
+        <f>B13</f>
+        <v>121765032</v>
+      </c>
+      <c r="C15">
+        <f>B15</f>
+        <v>121765032</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:U15" si="0">C15</f>
+        <v>121765032</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <f>NPV(B4,A15:U15)</f>
+        <v>926867598.882218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>926867598.88221705</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" s="3">
+        <f>B17-B18</f>
+        <v>9.5367431640625E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B907B72A-41D5-4B21-A796-455CB3645BCE}">
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="32.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>((1-B5)*B3)+(B5*B2)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <f>832316.88*150</f>
+        <v>124847532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>C7*150</f>
+        <v>1087500</v>
+      </c>
+      <c r="C7">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>C9*150</f>
+        <v>57000000</v>
+      </c>
+      <c r="C9">
+        <v>380000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <f>B9*(B5)/B11</f>
+        <v>1995000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <f>B6-B12-B7</f>
+        <v>121765032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <v>14</v>
+      </c>
+      <c r="P14">
+        <v>15</v>
+      </c>
+      <c r="Q14">
+        <v>16</v>
+      </c>
+      <c r="R14">
+        <v>17</v>
+      </c>
+      <c r="S14">
+        <v>18</v>
+      </c>
+      <c r="T14">
+        <v>19</v>
+      </c>
+      <c r="U14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <f>-(1-B5)*B9</f>
+        <v>-17100000.000000004</v>
+      </c>
+      <c r="B15">
+        <f>B13</f>
+        <v>121765032</v>
+      </c>
+      <c r="C15">
+        <f>B15</f>
+        <v>121765032</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:U15" si="0">C15</f>
+        <v>121765032</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <f>PMT(B2,B11,(B9*B5),0,0)</f>
+        <v>-4686639.0284245769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="6">
+        <v>-4686639.0284245797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="3">
+        <f>B20-B21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC5767E-B639-4E4C-BDD5-035C5FA94434}">
   <dimension ref="A1:AR19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="V19" sqref="A2:V19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -762,15 +1536,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BA6C2D-37DB-42C8-A821-1F3771468E39}">
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/emlabpy/test_npv.xlsx
+++ b/emlabpy/test_npv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\emlabpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F79F257-D77A-4184-AA51-499A0D2136C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55A7DB3-7DFD-4AE3-9934-70776A3DE129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2DEE18F0-ABF9-4F99-8667-5A8B8B4F2408}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2DEE18F0-ABF9-4F99-8667-5A8B8B4F2408}"/>
   </bookViews>
   <sheets>
     <sheet name="solar 150MW" sheetId="3" r:id="rId1"/>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DF4A6A-443B-4C7B-84B0-6530AFDAC39A}">
   <dimension ref="A1:AR19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -908,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B907B72A-41D5-4B21-A796-455CB3645BCE}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/emlabpy/test_npv.xlsx
+++ b/emlabpy/test_npv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\emlabpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55A7DB3-7DFD-4AE3-9934-70776A3DE129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DDB572-A2E6-4495-AA3B-6F8CBABFED35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2DEE18F0-ABF9-4F99-8667-5A8B8B4F2408}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2DEE18F0-ABF9-4F99-8667-5A8B8B4F2408}"/>
   </bookViews>
   <sheets>
     <sheet name="solar 150MW" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
   <si>
     <t>technology</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Annuity python</t>
+  </si>
+  <si>
+    <t>yearly income annuity</t>
+  </si>
+  <si>
+    <t>NPV restpayment</t>
+  </si>
+  <si>
+    <t>NPV annuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difference </t>
   </si>
 </sst>
 </file>
@@ -118,7 +130,7 @@
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.0;[Red]&quot;€&quot;\ \-#,##0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +156,13 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -162,10 +181,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -180,9 +200,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -589,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DF4A6A-443B-4C7B-84B0-6530AFDAC39A}">
   <dimension ref="A1:AR19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -906,323 +928,446 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B907B72A-41D5-4B21-A796-455CB3645BCE}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" t="s">
+    <row r="1" spans="2:22">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    <row r="2" spans="2:22">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+    <row r="3" spans="2:22">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
+    <row r="4" spans="2:22">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <f>((1-B5)*B3)+(B5*B2)</f>
+      <c r="C4">
+        <f>((1-C5)*C3)+(C5*C2)</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
+    <row r="5" spans="2:22">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
+    <row r="6" spans="2:22">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="5">
         <f>832316.88*150</f>
         <v>124847532</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
+    <row r="7" spans="2:22">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <f>C7*150</f>
+      <c r="C7">
+        <f>D7*150</f>
         <v>1087500</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>7250</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
+    <row r="8" spans="2:22">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
+    <row r="9" spans="2:22">
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
-        <f>C9*150</f>
+      <c r="C9">
+        <f>D9*150</f>
         <v>57000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>380000</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
+    <row r="10" spans="2:22">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
+    <row r="11" spans="2:22">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
+    <row r="12" spans="2:22">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <f>B9*(B5)/B11</f>
+      <c r="C12">
+        <f>C9*(C5)/C11</f>
         <v>1995000</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
+    <row r="13" spans="2:22">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <f>B6-B12-B7</f>
-        <v>121765032</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
+      <c r="C13">
+        <f>C6-C12-C7</f>
+        <v>121765032</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6">
+        <f>C6+C22-C7</f>
+        <v>119073392.97157542</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22">
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="B14">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="D14">
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="G15">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="H15">
         <v>6</v>
       </c>
-      <c r="H14">
+      <c r="I15">
         <v>7</v>
       </c>
-      <c r="I14">
+      <c r="J15">
         <v>8</v>
       </c>
-      <c r="J14">
+      <c r="K15">
         <v>9</v>
       </c>
-      <c r="K14">
+      <c r="L15">
         <v>10</v>
       </c>
-      <c r="L14">
+      <c r="M15">
         <v>11</v>
       </c>
-      <c r="M14">
+      <c r="N15">
         <v>12</v>
       </c>
-      <c r="N14">
+      <c r="O15">
         <v>13</v>
       </c>
-      <c r="O14">
+      <c r="P15">
         <v>14</v>
       </c>
-      <c r="P14">
+      <c r="Q15">
         <v>15</v>
       </c>
-      <c r="Q14">
+      <c r="R15">
         <v>16</v>
       </c>
-      <c r="R14">
+      <c r="S15">
         <v>17</v>
       </c>
-      <c r="S14">
+      <c r="T15">
         <v>18</v>
       </c>
-      <c r="T14">
+      <c r="U15">
         <v>19</v>
       </c>
-      <c r="U14">
+      <c r="V15">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15">
-        <f>-(1-B5)*B9</f>
+    <row r="16" spans="2:22">
+      <c r="B16">
+        <f>-(1-C5)*C9</f>
         <v>-17100000.000000004</v>
       </c>
-      <c r="B15">
-        <f>B13</f>
-        <v>121765032</v>
-      </c>
-      <c r="C15">
-        <f>B15</f>
-        <v>121765032</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ref="D15:U15" si="0">C15</f>
-        <v>121765032</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
+      <c r="C16">
+        <f>C13</f>
+        <v>121765032</v>
+      </c>
+      <c r="D16">
+        <f>C16</f>
+        <v>121765032</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ref="E16:V17" si="0">D16</f>
+        <v>121765032</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="0"/>
+        <v>121765032</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17">
+        <f>-(1-C5)*C9</f>
+        <v>-17100000.000000004</v>
+      </c>
+      <c r="C17" s="6">
+        <f>C14</f>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="D17" s="6">
+        <f>C17</f>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="T17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="U17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="0"/>
+        <v>119073392.97157542</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="19" spans="2:22">
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="C19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="22" spans="2:22">
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
-        <f>PMT(B2,B11,(B9*B5),0,0)</f>
+      <c r="C22" s="6">
+        <f>PMT(C2,C11,(C9*C5),0,0)</f>
         <v>-4686639.0284245769</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="23" spans="2:22">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6">
+      <c r="C23" s="6">
         <v>-4686639.0284245797</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="3">
-        <f>B20-B21</f>
+    <row r="24" spans="2:22">
+      <c r="C24" s="3">
+        <f>C22-C23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="7"/>
+    <row r="25" spans="2:22">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3">
+        <f>NPV(C4,B16:U16)</f>
+        <v>910413420.58862174</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <f>NPV(C4,B17:U17)</f>
+        <v>889944924.78083479</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="8">
+        <f>(C26-C27)/C27</f>
+        <v>2.2999733172058577E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/emlabpy/test_npv.xlsx
+++ b/emlabpy/test_npv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\emlabpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DDB572-A2E6-4495-AA3B-6F8CBABFED35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E878F66-8C50-4332-A3BF-8E935D218D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{2DEE18F0-ABF9-4F99-8667-5A8B8B4F2408}"/>
+    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2DEE18F0-ABF9-4F99-8667-5A8B8B4F2408}"/>
   </bookViews>
   <sheets>
     <sheet name="solar 150MW" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
   <si>
     <t>technology</t>
   </si>
@@ -106,9 +106,6 @@
     <t>future value</t>
   </si>
   <si>
-    <t>Annuity python</t>
-  </si>
-  <si>
     <t>yearly income annuity</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">difference </t>
+  </si>
+  <si>
+    <t>debtinterestRate</t>
   </si>
 </sst>
 </file>
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B907B72A-41D5-4B21-A796-455CB3645BCE}">
-  <dimension ref="B1:V29"/>
+  <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -939,6 +939,7 @@
     <col min="2" max="2" width="32.6328125" customWidth="1"/>
     <col min="3" max="3" width="27.26953125" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
@@ -951,10 +952,10 @@
     </row>
     <row r="2" spans="2:22">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="3" spans="2:22">
@@ -962,7 +963,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="2:22">
@@ -971,7 +972,7 @@
       </c>
       <c r="C4">
         <f>((1-C5)*C3)+(C5*C2)</f>
-        <v>0.1</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="5" spans="2:22">
@@ -987,8 +988,8 @@
         <v>7</v>
       </c>
       <c r="C6" s="5">
-        <f>832316.88*150</f>
-        <v>124847532</v>
+        <f>832316.88*10</f>
+        <v>8323168.7999999998</v>
       </c>
     </row>
     <row r="7" spans="2:22">
@@ -1043,178 +1044,101 @@
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
-        <f>C9*(C5)/C11</f>
-        <v>1995000</v>
+      <c r="C12" s="6">
+        <f>-C9*(C5)/C11</f>
+        <v>-1995000</v>
       </c>
     </row>
     <row r="13" spans="2:22">
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <f>C6-C12-C7</f>
-        <v>121765032</v>
+        <v>19</v>
+      </c>
+      <c r="C13" s="6">
+        <f>PMT(C2,C11,(C9*C5),0,0)</f>
+        <v>-3766277.7371559022</v>
       </c>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6">
-        <f>C6+C22-C7</f>
-        <v>119073392.97157542</v>
+        <f>C6+C12-C7</f>
+        <v>5240668.8</v>
       </c>
     </row>
     <row r="15" spans="2:22">
       <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="6">
+        <f>C6+C13-C7</f>
+        <v>3469391.0628440976</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>6</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>7</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>8</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>9</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>10</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>11</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>12</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <v>13</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>14</v>
       </c>
-      <c r="Q15">
+      <c r="Q16">
         <v>15</v>
       </c>
-      <c r="R15">
+      <c r="R16">
         <v>16</v>
       </c>
-      <c r="S15">
+      <c r="S16">
         <v>17</v>
       </c>
-      <c r="T15">
+      <c r="T16">
         <v>18</v>
       </c>
-      <c r="U15">
+      <c r="U16">
         <v>19</v>
       </c>
-      <c r="V15">
+      <c r="V16">
         <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22">
-      <c r="B16">
-        <f>-(1-C5)*C9</f>
-        <v>-17100000.000000004</v>
-      </c>
-      <c r="C16">
-        <f>C13</f>
-        <v>121765032</v>
-      </c>
-      <c r="D16">
-        <f>C16</f>
-        <v>121765032</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16:V17" si="0">D16</f>
-        <v>121765032</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
-      </c>
-      <c r="V16">
-        <f t="shared" si="0"/>
-        <v>121765032</v>
       </c>
     </row>
     <row r="17" spans="2:22">
@@ -1222,151 +1146,220 @@
         <f>-(1-C5)*C9</f>
         <v>-17100000.000000004</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <f>C14</f>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="D17" s="6">
+        <v>5240668.8</v>
+      </c>
+      <c r="D17">
         <f>C17</f>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="M17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="N17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="O17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="P17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="Q17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="R17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="S17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="T17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="U17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
-      </c>
-      <c r="V17" s="6">
-        <f t="shared" si="0"/>
-        <v>119073392.97157542</v>
+        <v>5240668.8</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:V18" si="0">D17</f>
+        <v>5240668.8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>5240668.8</v>
       </c>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" t="s">
-        <v>20</v>
+      <c r="B18">
+        <f>-(1-C5)*C9</f>
+        <v>-17100000.000000004</v>
+      </c>
+      <c r="C18" s="6">
+        <f>C15</f>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="D18" s="6">
+        <f>C18</f>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="S18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="T18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="U18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" si="0"/>
+        <v>3469391.0628440976</v>
       </c>
     </row>
     <row r="19" spans="2:22">
       <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:22">
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6">
-        <f>PMT(C2,C11,(C9*C5),0,0)</f>
-        <v>-4686639.0284245769</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22">
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="6">
-        <v>-4686639.0284245797</v>
-      </c>
-    </row>
     <row r="24" spans="2:22">
-      <c r="C24" s="3">
-        <f>C22-C23</f>
-        <v>0</v>
-      </c>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="C25" s="7"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="3">
-        <f>NPV(C4,B16:U16)</f>
-        <v>910413420.58862174</v>
-      </c>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3">
         <f>NPV(C4,B17:U17)</f>
-        <v>889944924.78083479</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22">
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="8">
-        <f>(C26-C27)/C27</f>
-        <v>2.2999733172058577E-2</v>
+        <v>29003734.746643025</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3">
+        <f>NPV(C4,B18:U18)</f>
+        <v>13874051.33785782</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8">
+        <f>(C27-C28)/C28</f>
+        <v>1.0905021929320076</v>
       </c>
     </row>
   </sheetData>

--- a/emlabpy/test_npv.xlsx
+++ b/emlabpy/test_npv.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\emlabpy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\toolbox-amiris-emlab\emlabpy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E878F66-8C50-4332-A3BF-8E935D218D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95F6425-7755-4A29-8CF6-AF591D478203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2DEE18F0-ABF9-4F99-8667-5A8B8B4F2408}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{2DEE18F0-ABF9-4F99-8667-5A8B8B4F2408}"/>
   </bookViews>
   <sheets>
     <sheet name="solar 150MW" sheetId="3" r:id="rId1"/>
     <sheet name="annuity" sheetId="4" r:id="rId2"/>
-    <sheet name="solar" sheetId="1" r:id="rId3"/>
-    <sheet name="ccgt" sheetId="2" r:id="rId4"/>
+    <sheet name="biomass" sheetId="5" r:id="rId3"/>
+    <sheet name="solar" sheetId="1" r:id="rId4"/>
+    <sheet name="ccgt" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>technology</t>
   </si>
@@ -119,6 +120,63 @@
   </si>
   <si>
     <t>debtinterestRate</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>investment perMW</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>yearly income with restpayment</t>
+  </si>
+  <si>
+    <t>yearly income with annuity</t>
+  </si>
+  <si>
+    <t>RESTPAYMENT</t>
+  </si>
+  <si>
+    <t>ANNUITY</t>
+  </si>
+  <si>
+    <t>NPV excel restpayment</t>
+  </si>
+  <si>
+    <t>NPV excel annuity</t>
+  </si>
+  <si>
+    <t>[-29000000.000000004, -29000000.000000004, -29000000.000000004, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544, 1531508702.0557544]</t>
+  </si>
+  <si>
+    <t>make financial reports</t>
+  </si>
+  <si>
+    <t>loans</t>
+  </si>
+  <si>
+    <t>operational profit with fixed costs</t>
+  </si>
+  <si>
+    <t>[-29000000.000000004, -29000000.000000004, -29000000.000000004, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165, 1531362847.0546165]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV </t>
+  </si>
+  <si>
+    <t>PYTHON</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>year  11 profits</t>
+  </si>
+  <si>
+    <t>expected</t>
   </si>
 </sst>
 </file>
@@ -164,12 +222,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -201,6 +265,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DF4A6A-443B-4C7B-84B0-6530AFDAC39A}">
   <dimension ref="A1:AR19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -930,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B907B72A-41D5-4B21-A796-455CB3645BCE}">
   <dimension ref="B1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -939,7 +1006,7 @@
     <col min="2" max="2" width="32.6328125" customWidth="1"/>
     <col min="3" max="3" width="27.26953125" customWidth="1"/>
     <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="5" max="19" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22">
@@ -1368,6 +1435,766 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E0E3E0-C1E4-4191-B98A-5FFDF2F11379}">
+  <dimension ref="A1:X45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="4" width="11.81640625" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>((1-B5)*B3)+(B5*B2)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <f>1567095314</f>
+        <v>1567095314</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>E8*B7</f>
+        <v>11700000</v>
+      </c>
+      <c r="E8">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>2900000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>B10*B7</f>
+        <v>290000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <f>B5*B11</f>
+        <v>203000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f>B11*(B5)/B14</f>
+        <v>10150000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="6">
+        <f>PMT(B2,B14,(B11*B5),0,0)</f>
+        <v>-23844303.828826796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6">
+        <f>B6-B15-B8</f>
+        <v>-21850000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="6">
+        <f>B6+B16-B8</f>
+        <v>-35544303.8288268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>11</v>
+      </c>
+      <c r="O20">
+        <v>12</v>
+      </c>
+      <c r="P20">
+        <v>13</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+      <c r="R20">
+        <v>15</v>
+      </c>
+      <c r="S20">
+        <v>16</v>
+      </c>
+      <c r="T20">
+        <v>17</v>
+      </c>
+      <c r="U20">
+        <v>18</v>
+      </c>
+      <c r="V20">
+        <v>19</v>
+      </c>
+      <c r="W20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21">
+        <f>-(1-B5)*B11/B9</f>
+        <v>-29000000.000000004</v>
+      </c>
+      <c r="B21">
+        <f>A21</f>
+        <v>-29000000.000000004</v>
+      </c>
+      <c r="C21">
+        <f>B21</f>
+        <v>-29000000.000000004</v>
+      </c>
+      <c r="D21" s="6">
+        <f>B17</f>
+        <v>-21850000</v>
+      </c>
+      <c r="E21">
+        <f>D21</f>
+        <v>-21850000</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21:W21" si="0">E21</f>
+        <v>-21850000</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="0"/>
+        <v>-21850000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22">
+        <f>A21/1000000</f>
+        <v>-29.000000000000004</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:W22" si="1">B21/1000000</f>
+        <v>-29.000000000000004</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>-29.000000000000004</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="E22">
+        <f>E21/1000000</f>
+        <v>-21.85</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>-21.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24">
+        <f>A21</f>
+        <v>-29000000.000000004</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:C24" si="2">B21</f>
+        <v>-29000000.000000004</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>-29000000.000000004</v>
+      </c>
+      <c r="D24" s="6">
+        <f>B18</f>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="E24" s="6">
+        <f>D24</f>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:W24" si="3">E24</f>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="S24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="T24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="U24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="V24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="W24" s="6">
+        <f t="shared" si="3"/>
+        <v>-35544303.8288268</v>
+      </c>
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25">
+        <f>A24/1000000</f>
+        <v>-29.000000000000004</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:W25" si="4">B24/1000000</f>
+        <v>-29.000000000000004</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>-29.000000000000004</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="4"/>
+        <v>-35.544303828826799</v>
+      </c>
+      <c r="X25" s="6"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6">
+        <f>NPV(B4,A21:W21)</f>
+        <v>-211879314.25749385</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="6">
+        <f>NPV(10%,A24:W24)</f>
+        <v>-299473099.56512028</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:24">
+      <c r="B28" s="3">
+        <f>B26-B27</f>
+        <v>87593785.307626426</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="10">
+        <v>10696369357.2862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>1555353005.8845799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>23844303.828826699</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36">
+        <f>B34-B35</f>
+        <v>1531508702.0557532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="10">
+        <v>10695343121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="11">
+        <v>106966991.36487</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>1555399876.1313701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>1567095314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC5767E-B639-4E4C-BDD5-035C5FA94434}">
   <dimension ref="A1:AR19"/>
   <sheetViews>
@@ -1678,7 +2505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06BA6C2D-37DB-42C8-A821-1F3771468E39}">
   <dimension ref="A1:V19"/>
   <sheetViews>
